--- a/K odevzdání/4. iterace/Testování/Testovací scénář - úprava jídelního lístku.xlsx
+++ b/K odevzdání/4. iterace/Testování/Testovací scénář - úprava jídelního lístku.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="45">
   <si>
     <t>Název:</t>
   </si>
@@ -137,6 +138,21 @@
   </si>
   <si>
     <t>1.Zobrazení odpovídajících jídel</t>
+  </si>
+  <si>
+    <t>5.</t>
+  </si>
+  <si>
+    <t>Zadání špatné ceny</t>
+  </si>
+  <si>
+    <t>Ověření, zda systém správně upozorní uživatele na problém s cenou u jídla</t>
+  </si>
+  <si>
+    <t>1.Zadám cenu, která nebude číslo (řetězec jiných znaků) u vybraného jídla</t>
+  </si>
+  <si>
+    <t>1.Systém mě upozorní na nepřevedení ceny jako řetězce na číslo</t>
   </si>
 </sst>
 </file>
@@ -756,8 +772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A1:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -833,4 +849,74 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:B14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.85546875" customWidth="1"/>
+    <col min="2" max="2" width="78.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/K odevzdání/4. iterace/Testování/Testovací scénář - úprava jídelního lístku.xlsx
+++ b/K odevzdání/4. iterace/Testování/Testovací scénář - úprava jídelního lístku.xlsx
@@ -4,21 +4,22 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet5" sheetId="6" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="48">
   <si>
     <t>Název:</t>
   </si>
@@ -47,27 +48,15 @@
     <t>Ověření, zda se dají přidávat nová jídla na jídelní lístek</t>
   </si>
   <si>
-    <t>Informace o jídle</t>
-  </si>
-  <si>
     <t>1.V menu kliknu na tlačítko s obrázkem jídelního lístku</t>
   </si>
   <si>
     <t>2.Kliknu na tlačítko "+"</t>
   </si>
   <si>
-    <t>3.Vyplním údaje o jídle</t>
-  </si>
-  <si>
     <t>4.Kliknu na tlačítko "+"</t>
   </si>
   <si>
-    <t>1.Ověření zda je zadána správna cena</t>
-  </si>
-  <si>
-    <t>2.Zobrazení nového jídla v nabídce jídel</t>
-  </si>
-  <si>
     <t>OK</t>
   </si>
   <si>
@@ -80,24 +69,9 @@
     <t xml:space="preserve">Ověření, zda lze u jídel upravit cenu, název, id </t>
   </si>
   <si>
-    <t>Nové informace o jídle</t>
-  </si>
-  <si>
-    <t>2.Dvojklikem nebo označením a kliknutím na tlačítko "lupa" vyvolám dialog s úpravou jídla</t>
-  </si>
-  <si>
-    <t>3.Upravím údaje</t>
-  </si>
-  <si>
     <t>4.Tlačítkem "+" uložím</t>
   </si>
   <si>
-    <t>1.Ověření ceny</t>
-  </si>
-  <si>
-    <t>2.Uložení úprav</t>
-  </si>
-  <si>
     <t>3.</t>
   </si>
   <si>
@@ -107,9 +81,6 @@
     <t>Ověření, zda lze jídlo z jídelního lístku odebrat</t>
   </si>
   <si>
-    <t>2.Kliknutím na jídlo ho označím</t>
-  </si>
-  <si>
     <t>3.Kliknutím na tlačítko "-" jídlo odstraním</t>
   </si>
   <si>
@@ -122,24 +93,12 @@
     <t>Vyhledávání jídel</t>
   </si>
   <si>
-    <t>Ověření, zda se správné vyhledá jídlo v jídelním lístku podle 1. písmena nebo části názvu</t>
-  </si>
-  <si>
     <t>1.Jídelní lístek s jídly</t>
   </si>
   <si>
     <t>1.Jídlo v jídelním lístku</t>
   </si>
   <si>
-    <t>2.Zadám do okénka první písmeno nebo část názvu</t>
-  </si>
-  <si>
-    <t>3.Počkám na zobrazení shod</t>
-  </si>
-  <si>
-    <t>1.Zobrazení odpovídajících jídel</t>
-  </si>
-  <si>
     <t>5.</t>
   </si>
   <si>
@@ -149,10 +108,61 @@
     <t>Ověření, zda systém správně upozorní uživatele na problém s cenou u jídla</t>
   </si>
   <si>
-    <t>1.Zadám cenu, která nebude číslo (řetězec jiných znaků) u vybraného jídla</t>
-  </si>
-  <si>
-    <t>1.Systém mě upozorní na nepřevedení ceny jako řetězce na číslo</t>
+    <t>3.Vyplním údaje o jídle - Název: Mňau na pánvi, Cena: 450, ID: KLM4</t>
+  </si>
+  <si>
+    <t>1.Uložení nového jídla do menu</t>
+  </si>
+  <si>
+    <t>2.Dvojklikem na "Hafburger", nebo označením a kliknutím na tlačítko "lupa", vyvolám dialog s úpravou jídla</t>
+  </si>
+  <si>
+    <t>1.Jídlo v menu</t>
+  </si>
+  <si>
+    <t>3.Upravím údaje - Cena: 350</t>
+  </si>
+  <si>
+    <t>1.Uložení úprav</t>
+  </si>
+  <si>
+    <t>2.Kliknutím na jídlo "Bobika" ho označím</t>
+  </si>
+  <si>
+    <t>2.Zadám do okénka písmeno H</t>
+  </si>
+  <si>
+    <t>1.Zobrazení odpovídajících jídel (Hafburger, Hloupá žirafa, Hovězí guláš)</t>
+  </si>
+  <si>
+    <t>6.</t>
+  </si>
+  <si>
+    <t>Ověření, zda se správně vyhledá jídlo v jídelním lístku podle části názvu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ověření, zda se správně vyhledá jídlo v jídelním lístku podle 1. písmena </t>
+  </si>
+  <si>
+    <t>2.Zadám do okénka řetězec "ged"</t>
+  </si>
+  <si>
+    <t>1.Zobrazení odpovídajících jídel (Segedýnský guláš)</t>
+  </si>
+  <si>
+    <t>1.Vyvolám dialog vytvoření nového jídla (viz test 1)</t>
+  </si>
+  <si>
+    <t>2.Vyplním údaje o jídle - Název: Slepičí pařáty, Cena: XX, ID: PAR2</t>
+  </si>
+  <si>
+    <t>3.Kliknu na "+"</t>
+  </si>
+  <si>
+    <t>2.Jídlo se neuloži</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Systém vypíše chybové hlášení o tom, že cenu nelze převést na číslo </t>
   </si>
 </sst>
 </file>
@@ -497,16 +507,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D1:D13"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="48.28515625" customWidth="1"/>
+    <col min="2" max="2" width="62.42578125" customWidth="1"/>
     <col min="3" max="3" width="9.140625" customWidth="1"/>
     <col min="4" max="4" width="51.7109375" customWidth="1"/>
   </cols>
@@ -534,35 +544,27 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-    </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -570,20 +572,15 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>5</v>
       </c>
-      <c r="B13" t="s">
-        <v>16</v>
+      <c r="B12" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -597,7 +594,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -608,7 +605,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -616,7 +613,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -624,7 +621,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -632,43 +629,38 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>4</v>
       </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -676,7 +668,7 @@
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -690,7 +682,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -701,7 +693,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -709,7 +701,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -717,41 +709,41 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>4</v>
       </c>
-      <c r="B10" t="s">
-        <v>31</v>
+      <c r="B11" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -759,7 +751,7 @@
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -770,10 +762,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A1:B14"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -784,7 +776,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -792,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -800,33 +792,28 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>38</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -834,15 +821,15 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>5</v>
       </c>
-      <c r="B13" t="s">
-        <v>16</v>
+      <c r="B12" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -853,10 +840,88 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B14"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="2" width="64.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:B12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -867,7 +932,7 @@
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -875,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -883,7 +948,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -896,23 +961,33 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>11</v>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
       <c r="B11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>5</v>
       </c>
-      <c r="B14" t="s">
-        <v>16</v>
+      <c r="B12" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/K odevzdání/4. iterace/Testování/Testovací scénář - úprava jídelního lístku.xlsx
+++ b/K odevzdání/4. iterace/Testování/Testovací scénář - úprava jídelního lístku.xlsx
@@ -162,7 +162,7 @@
     <t>2.Jídlo se neuloži</t>
   </si>
   <si>
-    <t xml:space="preserve">1.Systém vypíše chybové hlášení o tom, že cenu nelze převést na číslo </t>
+    <t>1.Systém vypíše chybové hlášení o tom, že cenu nelze převést na číslo-"Cena může být pouze číslo" a zčervenání kolonky ceny</t>
   </si>
 </sst>
 </file>
@@ -921,13 +921,13 @@
   <dimension ref="A2:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.85546875" customWidth="1"/>
-    <col min="2" max="2" width="78.7109375" customWidth="1"/>
+    <col min="2" max="2" width="112.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
